--- a/docs/sprint 0/Sprint 0 Backlog -  Sprint 0 Plannig.xlsx
+++ b/docs/sprint 0/Sprint 0 Backlog -  Sprint 0 Plannig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caro\Desktop\Sprint 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beto\Documents\NetBeansProjects\xtremescrump\docs\sprint 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog V1" sheetId="3" r:id="rId1"/>
@@ -475,6 +475,15 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,15 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -586,7 +586,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-EC"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -674,11 +674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="298822728"/>
-        <c:axId val="298816064"/>
+        <c:axId val="942903696"/>
+        <c:axId val="942904784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="298822728"/>
+        <c:axId val="942903696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-EC"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -787,15 +787,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298816064"/>
+        <c:crossAx val="942904784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="298816064"/>
+        <c:axId val="942904784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +867,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-EC"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -905,10 +905,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-EC"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="298822728"/>
+        <c:crossAx val="942903696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -946,7 +946,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-EC"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:J13"/>
+      <selection activeCell="G7" sqref="G7:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2019,12 +2019,12 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2036,10 +2036,10 @@
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
@@ -2057,7 +2057,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2066,10 +2066,10 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="36">
         <v>1</v>
       </c>
-      <c r="E7" s="33"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="10"/>
       <c r="G7" s="1">
         <v>0</v>
@@ -2085,17 +2085,17 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="35">
         <v>2</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="11"/>
       <c r="G8" s="1">
         <v>1</v>
@@ -2111,17 +2111,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
         <v>2</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="12">
         <v>3</v>
       </c>
@@ -2139,17 +2139,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="32">
         <v>1</v>
       </c>
-      <c r="E10" s="37"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="12"/>
       <c r="G10" s="1">
         <v>1</v>
@@ -2165,17 +2165,17 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="32">
         <v>2</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="12"/>
       <c r="G11" s="1">
         <v>2</v>
@@ -2191,17 +2191,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="32">
         <v>2</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="12"/>
       <c r="G12" s="1">
         <v>2</v>
@@ -2220,11 +2220,11 @@
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="35">
         <f>SUM(D7:D12)</f>
         <v>10</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="35"/>
       <c r="F13" s="11">
         <v>11</v>
       </c>
@@ -2246,27 +2246,27 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A7:A12"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
